--- a/src/main/python/exercise_records2.xlsx
+++ b/src/main/python/exercise_records2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="42">
   <si>
     <t>EXRECORDNO</t>
   </si>
@@ -39,119 +39,140 @@
     <t>NOTES</t>
   </si>
   <si>
+    <t>STARTDATE</t>
+  </si>
+  <si>
+    <t>EXUPDATEDATE</t>
+  </si>
+  <si>
+    <t>MEMBERNO</t>
+  </si>
+  <si>
+    <t>바벨컬</t>
+  </si>
+  <si>
+    <t>줄넘기</t>
+  </si>
+  <si>
+    <t>너무 좋다..</t>
+  </si>
+  <si>
+    <t>등산</t>
+  </si>
+  <si>
+    <t>헬스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>런닝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유산소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스쿼트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데드리프트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>풀업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>트레드밀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>등산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>등산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유산소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>런닝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 스쿼트는 정말 다리와 엉덩이에 자극이 많이 와요. 덕분에 하체가 탄탄해지는 걸 느낄 수 있었어요.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하체 완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하체 완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데드리프트는 전신 운동이라 그런지 힘든 만큼 효과가 확실해요. 특히 허리와 하체 근육이 많이 단련됐어요.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>No notes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>No notes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>북한산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지리산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>설악산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>런닝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스포츠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스포츠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스포츠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>농구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>축구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>등산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>RECORDDATE</t>
-  </si>
-  <si>
-    <t>STARTDATE</t>
-  </si>
-  <si>
-    <t>EXUPDATEDATE</t>
-  </si>
-  <si>
-    <t>MEMBERNO</t>
-  </si>
-  <si>
-    <t>바벨컬</t>
-  </si>
-  <si>
-    <t>줄넘기</t>
-  </si>
-  <si>
-    <t>너무 좋다..</t>
-  </si>
-  <si>
-    <t>등산</t>
-  </si>
-  <si>
-    <t>헬스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>런닝</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>유산소</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스쿼트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>데드리프트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>풀업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>트레드밀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>등산</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>등산</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>등산</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>유산소</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>유산소</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>런닝</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 스쿼트는 정말 다리와 엉덩이에 자극이 많이 와요. 덕분에 하체가 탄탄해지는 걸 느낄 수 있었어요.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>하체 완료</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>하체 완료</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>데드리프트는 전신 운동이라 그런지 힘든 만큼 효과가 확실해요. 특히 허리와 하체 근육이 많이 단련됐어요.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>No notes</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>No notes</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>북한산</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>지리산</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>설악산</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -160,7 +181,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -225,7 +246,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -531,13 +552,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="8" width="19.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -559,16 +583,16 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -576,10 +600,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D2">
         <v>20</v>
@@ -588,7 +612,7 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G2" s="2">
         <v>45465</v>
@@ -605,19 +629,19 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E3">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G3" s="2">
         <v>45465</v>
@@ -634,19 +658,19 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>150</v>
+        <v>225</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G4" s="2">
         <v>45448</v>
@@ -663,19 +687,19 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="E5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G5" s="2">
         <v>45455</v>
@@ -692,19 +716,19 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G6" s="2">
         <v>45454</v>
@@ -721,19 +745,19 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E7">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G7" s="2">
         <v>45456</v>
@@ -750,19 +774,19 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="E8">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G8" s="2">
         <v>45448</v>
@@ -779,19 +803,19 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>1200</v>
+      </c>
+      <c r="E9">
+        <v>60</v>
+      </c>
+      <c r="F9" t="s">
         <v>11</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9">
-        <v>800</v>
-      </c>
-      <c r="E9">
-        <v>40</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
       </c>
       <c r="G9" s="2">
         <v>45456</v>
@@ -808,19 +832,19 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D10">
-        <v>360</v>
+        <v>540</v>
       </c>
       <c r="E10">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G10" s="2">
         <v>45475</v>
@@ -837,19 +861,19 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D11">
-        <v>540</v>
+        <v>810</v>
       </c>
       <c r="E11">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G11" s="2">
         <v>45483</v>
@@ -866,19 +890,19 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D12">
-        <v>540</v>
+        <v>810</v>
       </c>
       <c r="E12">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G12" s="2">
         <v>45483</v>
@@ -895,16 +919,16 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="E13">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F13">
         <v>123</v>
@@ -924,19 +948,19 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D14">
-        <v>720</v>
+        <v>1080</v>
       </c>
       <c r="E14">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G14" s="2">
         <v>45476</v>
@@ -950,7 +974,384 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>20</v>
+      </c>
+      <c r="F16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="2">
+        <v>45434</v>
+      </c>
+      <c r="H16" s="2">
+        <v>45434.5</v>
+      </c>
+      <c r="J16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17">
+        <v>30</v>
+      </c>
+      <c r="E17">
+        <v>30</v>
+      </c>
+      <c r="F17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="2">
+        <v>45434</v>
+      </c>
+      <c r="H17" s="2">
+        <v>45435.5</v>
+      </c>
+      <c r="J17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18">
+        <v>150</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="2">
+        <v>45417</v>
+      </c>
+      <c r="H18" s="2">
+        <v>45440.565023148149</v>
+      </c>
+      <c r="J18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19">
+        <v>120</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="2">
+        <v>45424</v>
+      </c>
+      <c r="H19" s="2">
+        <v>45440.624895833331</v>
+      </c>
+      <c r="J19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20">
+        <v>200</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="2">
+        <v>45393</v>
+      </c>
+      <c r="H20" s="2">
+        <v>45410.625891203701</v>
+      </c>
+      <c r="J20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21">
+        <v>200</v>
+      </c>
+      <c r="E21">
+        <v>20</v>
+      </c>
+      <c r="F21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="2">
+        <v>45395</v>
+      </c>
+      <c r="H21" s="2">
+        <v>45410.634409722225</v>
+      </c>
+      <c r="J21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22">
+        <v>240</v>
+      </c>
+      <c r="E22">
+        <v>30</v>
+      </c>
+      <c r="F22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="2">
+        <v>45387</v>
+      </c>
+      <c r="H22" s="2">
+        <v>45410.714421296296</v>
+      </c>
+      <c r="J22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23">
+        <v>800</v>
+      </c>
+      <c r="E23">
+        <v>40</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="2">
+        <v>45395</v>
+      </c>
+      <c r="H23" s="2">
+        <v>45411.923703703702</v>
+      </c>
+      <c r="J23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>36</v>
+      </c>
+      <c r="D24">
+        <v>360</v>
+      </c>
+      <c r="E24">
+        <v>60</v>
+      </c>
+      <c r="F24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="2">
+        <v>45353</v>
+      </c>
+      <c r="H24" s="2">
+        <v>45352.482569444444</v>
+      </c>
+      <c r="J24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25">
+        <v>540</v>
+      </c>
+      <c r="E25">
+        <v>90</v>
+      </c>
+      <c r="F25" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" s="2">
+        <v>45361</v>
+      </c>
+      <c r="H25" s="2">
+        <v>45352.490833333337</v>
+      </c>
+      <c r="J25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26">
+        <v>540</v>
+      </c>
+      <c r="E26">
+        <v>90</v>
+      </c>
+      <c r="F26" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="2">
+        <v>45361</v>
+      </c>
+      <c r="H26" s="2">
+        <v>45352.490995370368</v>
+      </c>
+      <c r="J26">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27">
+        <v>120</v>
+      </c>
+      <c r="E27">
+        <v>60</v>
+      </c>
+      <c r="F27">
+        <v>123</v>
+      </c>
+      <c r="G27" s="2">
+        <v>45362</v>
+      </c>
+      <c r="H27" s="2">
+        <v>45352.604629629626</v>
+      </c>
+      <c r="J27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28">
+        <v>720</v>
+      </c>
+      <c r="E28">
+        <v>120</v>
+      </c>
+      <c r="F28" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" s="2">
+        <v>45354</v>
+      </c>
+      <c r="H28" s="2">
+        <v>45353.619085648148</v>
+      </c>
+      <c r="J28">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
